--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\UiPath\Assignment2-NotGreat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF633B-CFE1-45DD-88EF-1903671CFEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AFADD2-E59F-4B4B-A134-9A5DCC5DC6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="1860" windowWidth="21600" windowHeight="7575" xr2:uid="{6F4DCAE2-0BA8-4075-A207-16147C0730BD}"/>
+    <workbookView xWindow="5550" yWindow="2205" windowWidth="21600" windowHeight="7575" xr2:uid="{6F4DCAE2-0BA8-4075-A207-16147C0730BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="159">
   <si>
     <t>Nou
 Smart fortwo EQ 60kWed cool&amp;Audio SHZ Tempom Klima</t>
@@ -530,6 +530,14 @@
   </si>
   <si>
     <t>Smart fortwo coupé 60kWed passion cool&amp;Audio SHZ Pano</t>
+  </si>
+  <si>
+    <t>Nou
+Smart fortwo EQ 60kWed cool&amp;Audio SHZ PDC Komfort</t>
+  </si>
+  <si>
+    <t>Nou
+Smart smart EQ fortwo Cool u. Audio Einparkhilfe</t>
   </si>
 </sst>
 </file>
@@ -884,7 +892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC75D6E0-055B-4EAB-9665-2EF495132E7E}">
-  <dimension ref="A1:C838"/>
+  <dimension ref="A1:C1275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10108,6 +10116,4813 @@
         <v>13290</v>
       </c>
     </row>
+    <row r="839" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A839" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B839">
+        <v>2019</v>
+      </c>
+      <c r="C839">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A840" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B840">
+        <v>2020</v>
+      </c>
+      <c r="C840">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A841" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B841">
+        <v>2018</v>
+      </c>
+      <c r="C841">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A842" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B842">
+        <v>2017</v>
+      </c>
+      <c r="C842">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A843" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B843">
+        <v>2018</v>
+      </c>
+      <c r="C843">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A844" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B844">
+        <v>2020</v>
+      </c>
+      <c r="C844">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A845" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B845">
+        <v>2020</v>
+      </c>
+      <c r="C845">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A846" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B846">
+        <v>2020</v>
+      </c>
+      <c r="C846">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A847" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B847">
+        <v>2020</v>
+      </c>
+      <c r="C847">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A848" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B848">
+        <v>2020</v>
+      </c>
+      <c r="C848">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A849" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B849">
+        <v>2019</v>
+      </c>
+      <c r="C849">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A850" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B850">
+        <v>2019</v>
+      </c>
+      <c r="C850">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A851" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B851">
+        <v>2017</v>
+      </c>
+      <c r="C851">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A852" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B852">
+        <v>2013</v>
+      </c>
+      <c r="C852">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A853" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B853">
+        <v>2017</v>
+      </c>
+      <c r="C853">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A854" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B854">
+        <v>2019</v>
+      </c>
+      <c r="C854">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A855" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B855">
+        <v>2017</v>
+      </c>
+      <c r="C855">
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A856" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B856">
+        <v>2017</v>
+      </c>
+      <c r="C856">
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A857" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B857">
+        <v>2020</v>
+      </c>
+      <c r="C857">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A858" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B858">
+        <v>2019</v>
+      </c>
+      <c r="C858">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A859" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B859">
+        <v>2017</v>
+      </c>
+      <c r="C859">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A860" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B860">
+        <v>2019</v>
+      </c>
+      <c r="C860">
+        <v>13850</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A861" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B861">
+        <v>2019</v>
+      </c>
+      <c r="C861">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A862" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B862">
+        <v>2018</v>
+      </c>
+      <c r="C862">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A863" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B863">
+        <v>2017</v>
+      </c>
+      <c r="C863">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A864" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B864">
+        <v>2017</v>
+      </c>
+      <c r="C864">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A865" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B865">
+        <v>2018</v>
+      </c>
+      <c r="C865">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A866" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B866">
+        <v>2018</v>
+      </c>
+      <c r="C866">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A867" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B867">
+        <v>2018</v>
+      </c>
+      <c r="C867">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A868" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B868">
+        <v>2019</v>
+      </c>
+      <c r="C868">
+        <v>14799</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A869" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B869">
+        <v>2017</v>
+      </c>
+      <c r="C869">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>22</v>
+      </c>
+      <c r="B870">
+        <v>2019</v>
+      </c>
+      <c r="C870">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>22</v>
+      </c>
+      <c r="B871">
+        <v>2019</v>
+      </c>
+      <c r="C871">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>23</v>
+      </c>
+      <c r="B872">
+        <v>2016</v>
+      </c>
+      <c r="C872">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>24</v>
+      </c>
+      <c r="B873">
+        <v>2018</v>
+      </c>
+      <c r="C873">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>25</v>
+      </c>
+      <c r="B874">
+        <v>2018</v>
+      </c>
+      <c r="C874">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>26</v>
+      </c>
+      <c r="B875">
+        <v>2020</v>
+      </c>
+      <c r="C875">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>27</v>
+      </c>
+      <c r="B876">
+        <v>2019</v>
+      </c>
+      <c r="C876">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>28</v>
+      </c>
+      <c r="B877">
+        <v>2019</v>
+      </c>
+      <c r="C877">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>28</v>
+      </c>
+      <c r="B878">
+        <v>2019</v>
+      </c>
+      <c r="C878">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>28</v>
+      </c>
+      <c r="B879">
+        <v>2018</v>
+      </c>
+      <c r="C879">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>28</v>
+      </c>
+      <c r="B880">
+        <v>2018</v>
+      </c>
+      <c r="C880">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>29</v>
+      </c>
+      <c r="B881">
+        <v>2019</v>
+      </c>
+      <c r="C881">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>30</v>
+      </c>
+      <c r="B882">
+        <v>2019</v>
+      </c>
+      <c r="C882">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>31</v>
+      </c>
+      <c r="B883">
+        <v>2020</v>
+      </c>
+      <c r="C883">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>32</v>
+      </c>
+      <c r="B884">
+        <v>2018</v>
+      </c>
+      <c r="C884">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>32</v>
+      </c>
+      <c r="B885">
+        <v>2018</v>
+      </c>
+      <c r="C885">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>33</v>
+      </c>
+      <c r="B886">
+        <v>2017</v>
+      </c>
+      <c r="C886">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>34</v>
+      </c>
+      <c r="B887">
+        <v>2019</v>
+      </c>
+      <c r="C887">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>35</v>
+      </c>
+      <c r="B888">
+        <v>2020</v>
+      </c>
+      <c r="C888">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>36</v>
+      </c>
+      <c r="B889">
+        <v>2020</v>
+      </c>
+      <c r="C889">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>37</v>
+      </c>
+      <c r="B890">
+        <v>2020</v>
+      </c>
+      <c r="C890">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>31</v>
+      </c>
+      <c r="B891">
+        <v>2020</v>
+      </c>
+      <c r="C891">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>31</v>
+      </c>
+      <c r="B892">
+        <v>2020</v>
+      </c>
+      <c r="C892">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>38</v>
+      </c>
+      <c r="B893">
+        <v>2018</v>
+      </c>
+      <c r="C893">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>39</v>
+      </c>
+      <c r="B894">
+        <v>2015</v>
+      </c>
+      <c r="C894">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>40</v>
+      </c>
+      <c r="B895">
+        <v>2019</v>
+      </c>
+      <c r="C895">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>42</v>
+      </c>
+      <c r="B896">
+        <v>2018</v>
+      </c>
+      <c r="C896">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>43</v>
+      </c>
+      <c r="B897">
+        <v>2017</v>
+      </c>
+      <c r="C897">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>44</v>
+      </c>
+      <c r="B898">
+        <v>2020</v>
+      </c>
+      <c r="C898">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>44</v>
+      </c>
+      <c r="B899">
+        <v>2020</v>
+      </c>
+      <c r="C899">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>45</v>
+      </c>
+      <c r="B900">
+        <v>2018</v>
+      </c>
+      <c r="C900">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>46</v>
+      </c>
+      <c r="B901">
+        <v>2020</v>
+      </c>
+      <c r="C901">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>46</v>
+      </c>
+      <c r="B902">
+        <v>2020</v>
+      </c>
+      <c r="C902">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>46</v>
+      </c>
+      <c r="B903">
+        <v>2020</v>
+      </c>
+      <c r="C903">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>47</v>
+      </c>
+      <c r="B904">
+        <v>2017</v>
+      </c>
+      <c r="C904">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>48</v>
+      </c>
+      <c r="B905">
+        <v>2020</v>
+      </c>
+      <c r="C905">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>48</v>
+      </c>
+      <c r="B906">
+        <v>2020</v>
+      </c>
+      <c r="C906">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>49</v>
+      </c>
+      <c r="B907">
+        <v>2018</v>
+      </c>
+      <c r="C907">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>50</v>
+      </c>
+      <c r="B908">
+        <v>2019</v>
+      </c>
+      <c r="C908">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>51</v>
+      </c>
+      <c r="B909">
+        <v>2017</v>
+      </c>
+      <c r="C909">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>52</v>
+      </c>
+      <c r="B910">
+        <v>2018</v>
+      </c>
+      <c r="C910">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>53</v>
+      </c>
+      <c r="B911">
+        <v>2020</v>
+      </c>
+      <c r="C911">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>54</v>
+      </c>
+      <c r="B912">
+        <v>2019</v>
+      </c>
+      <c r="C912">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>55</v>
+      </c>
+      <c r="B913">
+        <v>2018</v>
+      </c>
+      <c r="C913">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>56</v>
+      </c>
+      <c r="B914">
+        <v>2020</v>
+      </c>
+      <c r="C914">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>36</v>
+      </c>
+      <c r="B915">
+        <v>2020</v>
+      </c>
+      <c r="C915">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>57</v>
+      </c>
+      <c r="B916">
+        <v>2018</v>
+      </c>
+      <c r="C916">
+        <v>12799</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>58</v>
+      </c>
+      <c r="B917">
+        <v>2018</v>
+      </c>
+      <c r="C917">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>59</v>
+      </c>
+      <c r="B918">
+        <v>2017</v>
+      </c>
+      <c r="C918">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>60</v>
+      </c>
+      <c r="B919">
+        <v>2017</v>
+      </c>
+      <c r="C919">
+        <v>11855</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>61</v>
+      </c>
+      <c r="B920">
+        <v>2018</v>
+      </c>
+      <c r="C920">
+        <v>12888</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>62</v>
+      </c>
+      <c r="B921">
+        <v>2017</v>
+      </c>
+      <c r="C921">
+        <v>12890</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>63</v>
+      </c>
+      <c r="B922">
+        <v>2018</v>
+      </c>
+      <c r="C922">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>64</v>
+      </c>
+      <c r="B923">
+        <v>2015</v>
+      </c>
+      <c r="C923">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>36</v>
+      </c>
+      <c r="B924">
+        <v>2020</v>
+      </c>
+      <c r="C924">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>65</v>
+      </c>
+      <c r="B925">
+        <v>2019</v>
+      </c>
+      <c r="C925">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>65</v>
+      </c>
+      <c r="B926">
+        <v>2019</v>
+      </c>
+      <c r="C926">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>36</v>
+      </c>
+      <c r="B927">
+        <v>2020</v>
+      </c>
+      <c r="C927">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>36</v>
+      </c>
+      <c r="B928">
+        <v>2020</v>
+      </c>
+      <c r="C928">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>66</v>
+      </c>
+      <c r="B929">
+        <v>2020</v>
+      </c>
+      <c r="C929">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>66</v>
+      </c>
+      <c r="B930">
+        <v>2020</v>
+      </c>
+      <c r="C930">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>67</v>
+      </c>
+      <c r="B931">
+        <v>2019</v>
+      </c>
+      <c r="C931">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>68</v>
+      </c>
+      <c r="B932">
+        <v>2018</v>
+      </c>
+      <c r="C932">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>69</v>
+      </c>
+      <c r="B933">
+        <v>2018</v>
+      </c>
+      <c r="C933">
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>70</v>
+      </c>
+      <c r="B934">
+        <v>2019</v>
+      </c>
+      <c r="C934">
+        <v>13599</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>71</v>
+      </c>
+      <c r="B935">
+        <v>2018</v>
+      </c>
+      <c r="C935">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>72</v>
+      </c>
+      <c r="B936">
+        <v>2018</v>
+      </c>
+      <c r="C936">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>73</v>
+      </c>
+      <c r="B937">
+        <v>2017</v>
+      </c>
+      <c r="C937">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>74</v>
+      </c>
+      <c r="B938">
+        <v>2018</v>
+      </c>
+      <c r="C938">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>75</v>
+      </c>
+      <c r="B939">
+        <v>2018</v>
+      </c>
+      <c r="C939">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>76</v>
+      </c>
+      <c r="B940">
+        <v>2019</v>
+      </c>
+      <c r="C940">
+        <v>14480</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>31</v>
+      </c>
+      <c r="B941">
+        <v>2020</v>
+      </c>
+      <c r="C941">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>31</v>
+      </c>
+      <c r="B942">
+        <v>2020</v>
+      </c>
+      <c r="C942">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>31</v>
+      </c>
+      <c r="B943">
+        <v>2020</v>
+      </c>
+      <c r="C943">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>31</v>
+      </c>
+      <c r="B944">
+        <v>2020</v>
+      </c>
+      <c r="C944">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>31</v>
+      </c>
+      <c r="B945">
+        <v>2020</v>
+      </c>
+      <c r="C945">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>31</v>
+      </c>
+      <c r="B946">
+        <v>2020</v>
+      </c>
+      <c r="C946">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>77</v>
+      </c>
+      <c r="B947">
+        <v>2020</v>
+      </c>
+      <c r="C947">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>77</v>
+      </c>
+      <c r="B948">
+        <v>2020</v>
+      </c>
+      <c r="C948">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>36</v>
+      </c>
+      <c r="B949">
+        <v>2020</v>
+      </c>
+      <c r="C949">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>36</v>
+      </c>
+      <c r="B950">
+        <v>2020</v>
+      </c>
+      <c r="C950">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>36</v>
+      </c>
+      <c r="B951">
+        <v>2020</v>
+      </c>
+      <c r="C951">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>78</v>
+      </c>
+      <c r="B952">
+        <v>2019</v>
+      </c>
+      <c r="C952">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>79</v>
+      </c>
+      <c r="B953">
+        <v>2019</v>
+      </c>
+      <c r="C953">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>79</v>
+      </c>
+      <c r="B954">
+        <v>2019</v>
+      </c>
+      <c r="C954">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>80</v>
+      </c>
+      <c r="B955">
+        <v>2017</v>
+      </c>
+      <c r="C955">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>81</v>
+      </c>
+      <c r="B956">
+        <v>2021</v>
+      </c>
+      <c r="C956">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>31</v>
+      </c>
+      <c r="B957">
+        <v>2020</v>
+      </c>
+      <c r="C957">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>82</v>
+      </c>
+      <c r="B958">
+        <v>2020</v>
+      </c>
+      <c r="C958">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>83</v>
+      </c>
+      <c r="B959">
+        <v>2018</v>
+      </c>
+      <c r="C959">
+        <v>14444</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>84</v>
+      </c>
+      <c r="B960">
+        <v>2017</v>
+      </c>
+      <c r="C960">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>85</v>
+      </c>
+      <c r="B961">
+        <v>2019</v>
+      </c>
+      <c r="C961">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>86</v>
+      </c>
+      <c r="B962">
+        <v>2019</v>
+      </c>
+      <c r="C962">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>86</v>
+      </c>
+      <c r="B963">
+        <v>2019</v>
+      </c>
+      <c r="C963">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>87</v>
+      </c>
+      <c r="B964">
+        <v>2019</v>
+      </c>
+      <c r="C964">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>88</v>
+      </c>
+      <c r="B965">
+        <v>2020</v>
+      </c>
+      <c r="C965">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>89</v>
+      </c>
+      <c r="B966">
+        <v>2019</v>
+      </c>
+      <c r="C966">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>31</v>
+      </c>
+      <c r="B967">
+        <v>2020</v>
+      </c>
+      <c r="C967">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>90</v>
+      </c>
+      <c r="B968">
+        <v>2018</v>
+      </c>
+      <c r="C968">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>91</v>
+      </c>
+      <c r="B969">
+        <v>2018</v>
+      </c>
+      <c r="C969">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>92</v>
+      </c>
+      <c r="B970">
+        <v>2018</v>
+      </c>
+      <c r="C970">
+        <v>14595</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>93</v>
+      </c>
+      <c r="B971">
+        <v>2019</v>
+      </c>
+      <c r="C971">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>94</v>
+      </c>
+      <c r="B972">
+        <v>2018</v>
+      </c>
+      <c r="C972">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>35</v>
+      </c>
+      <c r="B973">
+        <v>2020</v>
+      </c>
+      <c r="C973">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>95</v>
+      </c>
+      <c r="B974">
+        <v>2018</v>
+      </c>
+      <c r="C974">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>96</v>
+      </c>
+      <c r="B975">
+        <v>2017</v>
+      </c>
+      <c r="C975">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>97</v>
+      </c>
+      <c r="B976">
+        <v>2020</v>
+      </c>
+      <c r="C976">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>98</v>
+      </c>
+      <c r="B977">
+        <v>2017</v>
+      </c>
+      <c r="C977">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>99</v>
+      </c>
+      <c r="B978">
+        <v>2017</v>
+      </c>
+      <c r="C978">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>100</v>
+      </c>
+      <c r="B979">
+        <v>2018</v>
+      </c>
+      <c r="C979">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>101</v>
+      </c>
+      <c r="B980">
+        <v>2018</v>
+      </c>
+      <c r="C980">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>102</v>
+      </c>
+      <c r="B981">
+        <v>2018</v>
+      </c>
+      <c r="C981">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>102</v>
+      </c>
+      <c r="B982">
+        <v>2018</v>
+      </c>
+      <c r="C982">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>103</v>
+      </c>
+      <c r="B983">
+        <v>2018</v>
+      </c>
+      <c r="C983">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>104</v>
+      </c>
+      <c r="B984">
+        <v>2018</v>
+      </c>
+      <c r="C984">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>105</v>
+      </c>
+      <c r="B985">
+        <v>2017</v>
+      </c>
+      <c r="C985">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>106</v>
+      </c>
+      <c r="B986">
+        <v>2018</v>
+      </c>
+      <c r="C986">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>41</v>
+      </c>
+      <c r="B987">
+        <v>2019</v>
+      </c>
+      <c r="C987">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>107</v>
+      </c>
+      <c r="B988">
+        <v>2017</v>
+      </c>
+      <c r="C988">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>109</v>
+      </c>
+      <c r="B989">
+        <v>2017</v>
+      </c>
+      <c r="C989">
+        <v>13390</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>110</v>
+      </c>
+      <c r="B990">
+        <v>2019</v>
+      </c>
+      <c r="C990">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>111</v>
+      </c>
+      <c r="B991">
+        <v>2017</v>
+      </c>
+      <c r="C991">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>112</v>
+      </c>
+      <c r="B992">
+        <v>2018</v>
+      </c>
+      <c r="C992">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>54</v>
+      </c>
+      <c r="B993">
+        <v>2019</v>
+      </c>
+      <c r="C993">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>113</v>
+      </c>
+      <c r="B994">
+        <v>2018</v>
+      </c>
+      <c r="C994">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>114</v>
+      </c>
+      <c r="B995">
+        <v>2017</v>
+      </c>
+      <c r="C995">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>115</v>
+      </c>
+      <c r="B996">
+        <v>2013</v>
+      </c>
+      <c r="C996">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>116</v>
+      </c>
+      <c r="B997">
+        <v>2018</v>
+      </c>
+      <c r="C997">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>117</v>
+      </c>
+      <c r="B998">
+        <v>2018</v>
+      </c>
+      <c r="C998">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>117</v>
+      </c>
+      <c r="B999">
+        <v>2018</v>
+      </c>
+      <c r="C999">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1000">
+        <v>2019</v>
+      </c>
+      <c r="C1000">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1001">
+        <v>2019</v>
+      </c>
+      <c r="C1001">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1002">
+        <v>2018</v>
+      </c>
+      <c r="C1002">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1003">
+        <v>2019</v>
+      </c>
+      <c r="C1003">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1004">
+        <v>2018</v>
+      </c>
+      <c r="C1004">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1005">
+        <v>2020</v>
+      </c>
+      <c r="C1005">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1006">
+        <v>2018</v>
+      </c>
+      <c r="C1006">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1007">
+        <v>2018</v>
+      </c>
+      <c r="C1007">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1008">
+        <v>2018</v>
+      </c>
+      <c r="C1008">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1009">
+        <v>2014</v>
+      </c>
+      <c r="C1009">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1010">
+        <v>2018</v>
+      </c>
+      <c r="C1010">
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1011">
+        <v>2018</v>
+      </c>
+      <c r="C1011">
+        <v>10490</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1012">
+        <v>2019</v>
+      </c>
+      <c r="C1012">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1013">
+        <v>2018</v>
+      </c>
+      <c r="C1013">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1014">
+        <v>2018</v>
+      </c>
+      <c r="C1014">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1015">
+        <v>2017</v>
+      </c>
+      <c r="C1015">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1016">
+        <v>2018</v>
+      </c>
+      <c r="C1016">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1017">
+        <v>2018</v>
+      </c>
+      <c r="C1017">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1018">
+        <v>2019</v>
+      </c>
+      <c r="C1018">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1019">
+        <v>2019</v>
+      </c>
+      <c r="C1019">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1020">
+        <v>2018</v>
+      </c>
+      <c r="C1020">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1021">
+        <v>2018</v>
+      </c>
+      <c r="C1021">
+        <v>12499</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1022">
+        <v>2020</v>
+      </c>
+      <c r="C1022">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1023">
+        <v>2019</v>
+      </c>
+      <c r="C1023">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1024">
+        <v>2018</v>
+      </c>
+      <c r="C1024">
+        <v>12966</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1025">
+        <v>2019</v>
+      </c>
+      <c r="C1025">
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1026">
+        <v>2018</v>
+      </c>
+      <c r="C1026">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1027">
+        <v>2018</v>
+      </c>
+      <c r="C1027">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1028">
+        <v>2018</v>
+      </c>
+      <c r="C1028">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1029">
+        <v>2014</v>
+      </c>
+      <c r="C1029">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1030">
+        <v>2017</v>
+      </c>
+      <c r="C1030">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1031">
+        <v>2014</v>
+      </c>
+      <c r="C1031">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1032">
+        <v>2018</v>
+      </c>
+      <c r="C1032">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1033">
+        <v>2018</v>
+      </c>
+      <c r="C1033">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1034">
+        <v>2017</v>
+      </c>
+      <c r="C1034">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1035">
+        <v>2017</v>
+      </c>
+      <c r="C1035">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1036">
+        <v>2018</v>
+      </c>
+      <c r="C1036">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1037">
+        <v>2018</v>
+      </c>
+      <c r="C1037">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1038">
+        <v>2017</v>
+      </c>
+      <c r="C1038">
+        <v>14995</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1039">
+        <v>2018</v>
+      </c>
+      <c r="C1039">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1040">
+        <v>2017</v>
+      </c>
+      <c r="C1040">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1041">
+        <v>2017</v>
+      </c>
+      <c r="C1041">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1042">
+        <v>2018</v>
+      </c>
+      <c r="C1042">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1043">
+        <v>2018</v>
+      </c>
+      <c r="C1043">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1044">
+        <v>2017</v>
+      </c>
+      <c r="C1044">
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1045">
+        <v>2018</v>
+      </c>
+      <c r="C1045">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1046">
+        <v>2014</v>
+      </c>
+      <c r="C1046">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1047">
+        <v>2017</v>
+      </c>
+      <c r="C1047">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1048">
+        <v>2017</v>
+      </c>
+      <c r="C1048">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1049" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1049">
+        <v>2019</v>
+      </c>
+      <c r="C1049">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1050" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1050">
+        <v>2019</v>
+      </c>
+      <c r="C1050">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1051" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1051">
+        <v>2019</v>
+      </c>
+      <c r="C1051">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1052" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1052">
+        <v>2020</v>
+      </c>
+      <c r="C1052">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1053" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1053">
+        <v>2018</v>
+      </c>
+      <c r="C1053">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1054" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1054">
+        <v>2017</v>
+      </c>
+      <c r="C1054">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1055" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1055">
+        <v>2018</v>
+      </c>
+      <c r="C1055">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1056" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1056">
+        <v>2020</v>
+      </c>
+      <c r="C1056">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1057" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1057">
+        <v>2020</v>
+      </c>
+      <c r="C1057">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1058" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1058">
+        <v>2020</v>
+      </c>
+      <c r="C1058">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1059" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1059">
+        <v>2020</v>
+      </c>
+      <c r="C1059">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1060" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1060">
+        <v>2020</v>
+      </c>
+      <c r="C1060">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1061" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1061">
+        <v>2019</v>
+      </c>
+      <c r="C1061">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1062" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1062">
+        <v>2019</v>
+      </c>
+      <c r="C1062">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1063" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1063">
+        <v>2017</v>
+      </c>
+      <c r="C1063">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1064" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1064">
+        <v>2019</v>
+      </c>
+      <c r="C1064">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1065" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1065">
+        <v>2019</v>
+      </c>
+      <c r="C1065">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1066" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1066">
+        <v>2019</v>
+      </c>
+      <c r="C1066">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1067" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1067">
+        <v>2020</v>
+      </c>
+      <c r="C1067">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1068" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1068">
+        <v>2018</v>
+      </c>
+      <c r="C1068">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1069" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1069">
+        <v>2017</v>
+      </c>
+      <c r="C1069">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1070" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1070">
+        <v>2018</v>
+      </c>
+      <c r="C1070">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1071" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1071">
+        <v>2020</v>
+      </c>
+      <c r="C1071">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1072" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1072">
+        <v>2020</v>
+      </c>
+      <c r="C1072">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1073" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1073">
+        <v>2020</v>
+      </c>
+      <c r="C1073">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1074" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1074">
+        <v>2020</v>
+      </c>
+      <c r="C1074">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1075" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1075">
+        <v>2020</v>
+      </c>
+      <c r="C1075">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1076" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1076">
+        <v>2019</v>
+      </c>
+      <c r="C1076">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1077" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1077">
+        <v>2019</v>
+      </c>
+      <c r="C1077">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1078" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1078">
+        <v>2017</v>
+      </c>
+      <c r="C1078">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1079" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1079">
+        <v>2013</v>
+      </c>
+      <c r="C1079">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1080" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1080">
+        <v>2017</v>
+      </c>
+      <c r="C1080">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1081" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1081">
+        <v>2019</v>
+      </c>
+      <c r="C1081">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1082" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1082">
+        <v>2017</v>
+      </c>
+      <c r="C1082">
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1083" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1083">
+        <v>2017</v>
+      </c>
+      <c r="C1083">
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1084" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1084">
+        <v>2020</v>
+      </c>
+      <c r="C1084">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1085" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1085">
+        <v>2019</v>
+      </c>
+      <c r="C1085">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1086" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1086">
+        <v>2017</v>
+      </c>
+      <c r="C1086">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1087" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1087">
+        <v>2019</v>
+      </c>
+      <c r="C1087">
+        <v>13850</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1088" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1088">
+        <v>2019</v>
+      </c>
+      <c r="C1088">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1089" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1089">
+        <v>2018</v>
+      </c>
+      <c r="C1089">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1090" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1090">
+        <v>2017</v>
+      </c>
+      <c r="C1090">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1091" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1091">
+        <v>2017</v>
+      </c>
+      <c r="C1091">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1092" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1092">
+        <v>2018</v>
+      </c>
+      <c r="C1092">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1093" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1093">
+        <v>2018</v>
+      </c>
+      <c r="C1093">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1094" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1094">
+        <v>2018</v>
+      </c>
+      <c r="C1094">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1095" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1095">
+        <v>2019</v>
+      </c>
+      <c r="C1095">
+        <v>14799</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1096" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1096">
+        <v>2017</v>
+      </c>
+      <c r="C1096">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1097">
+        <v>2019</v>
+      </c>
+      <c r="C1097">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1098">
+        <v>2019</v>
+      </c>
+      <c r="C1098">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1099">
+        <v>2016</v>
+      </c>
+      <c r="C1099">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1100">
+        <v>2018</v>
+      </c>
+      <c r="C1100">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1101">
+        <v>2018</v>
+      </c>
+      <c r="C1101">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1102">
+        <v>2020</v>
+      </c>
+      <c r="C1102">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1103">
+        <v>2019</v>
+      </c>
+      <c r="C1103">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1104">
+        <v>2019</v>
+      </c>
+      <c r="C1104">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1105">
+        <v>2019</v>
+      </c>
+      <c r="C1105">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1106">
+        <v>2018</v>
+      </c>
+      <c r="C1106">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1107">
+        <v>2018</v>
+      </c>
+      <c r="C1107">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1108">
+        <v>2019</v>
+      </c>
+      <c r="C1108">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1109">
+        <v>2019</v>
+      </c>
+      <c r="C1109">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1110">
+        <v>2020</v>
+      </c>
+      <c r="C1110">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1111">
+        <v>2018</v>
+      </c>
+      <c r="C1111">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1112">
+        <v>2018</v>
+      </c>
+      <c r="C1112">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1113">
+        <v>2017</v>
+      </c>
+      <c r="C1113">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1114">
+        <v>2019</v>
+      </c>
+      <c r="C1114">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1115">
+        <v>2020</v>
+      </c>
+      <c r="C1115">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1116">
+        <v>2020</v>
+      </c>
+      <c r="C1116">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1117">
+        <v>2020</v>
+      </c>
+      <c r="C1117">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1118">
+        <v>2020</v>
+      </c>
+      <c r="C1118">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1119">
+        <v>2020</v>
+      </c>
+      <c r="C1119">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1120">
+        <v>2018</v>
+      </c>
+      <c r="C1120">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1121">
+        <v>2015</v>
+      </c>
+      <c r="C1121">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1122">
+        <v>2019</v>
+      </c>
+      <c r="C1122">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1123">
+        <v>2018</v>
+      </c>
+      <c r="C1123">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1124">
+        <v>2017</v>
+      </c>
+      <c r="C1124">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1125">
+        <v>2020</v>
+      </c>
+      <c r="C1125">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1126">
+        <v>2020</v>
+      </c>
+      <c r="C1126">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1127">
+        <v>2018</v>
+      </c>
+      <c r="C1127">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1128">
+        <v>2020</v>
+      </c>
+      <c r="C1128">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1129">
+        <v>2020</v>
+      </c>
+      <c r="C1129">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1130">
+        <v>2020</v>
+      </c>
+      <c r="C1130">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1131">
+        <v>2017</v>
+      </c>
+      <c r="C1131">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1132">
+        <v>2020</v>
+      </c>
+      <c r="C1132">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1133">
+        <v>2020</v>
+      </c>
+      <c r="C1133">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1134">
+        <v>2018</v>
+      </c>
+      <c r="C1134">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1135">
+        <v>2019</v>
+      </c>
+      <c r="C1135">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1136">
+        <v>2017</v>
+      </c>
+      <c r="C1136">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1137">
+        <v>2018</v>
+      </c>
+      <c r="C1137">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1138">
+        <v>2020</v>
+      </c>
+      <c r="C1138">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1139">
+        <v>2019</v>
+      </c>
+      <c r="C1139">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1140">
+        <v>2018</v>
+      </c>
+      <c r="C1140">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1141">
+        <v>2020</v>
+      </c>
+      <c r="C1141">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1142">
+        <v>2020</v>
+      </c>
+      <c r="C1142">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1143">
+        <v>2018</v>
+      </c>
+      <c r="C1143">
+        <v>12799</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1144">
+        <v>2018</v>
+      </c>
+      <c r="C1144">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1145">
+        <v>2017</v>
+      </c>
+      <c r="C1145">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1146">
+        <v>2017</v>
+      </c>
+      <c r="C1146">
+        <v>11855</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1147">
+        <v>2018</v>
+      </c>
+      <c r="C1147">
+        <v>12888</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1148">
+        <v>2017</v>
+      </c>
+      <c r="C1148">
+        <v>12890</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1149">
+        <v>2018</v>
+      </c>
+      <c r="C1149">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1150">
+        <v>2015</v>
+      </c>
+      <c r="C1150">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1151">
+        <v>2020</v>
+      </c>
+      <c r="C1151">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1152">
+        <v>2019</v>
+      </c>
+      <c r="C1152">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1153">
+        <v>2019</v>
+      </c>
+      <c r="C1153">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1154">
+        <v>2020</v>
+      </c>
+      <c r="C1154">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1155">
+        <v>2020</v>
+      </c>
+      <c r="C1155">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1156">
+        <v>2020</v>
+      </c>
+      <c r="C1156">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1157">
+        <v>2020</v>
+      </c>
+      <c r="C1157">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1158">
+        <v>2019</v>
+      </c>
+      <c r="C1158">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1159">
+        <v>2018</v>
+      </c>
+      <c r="C1159">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1160">
+        <v>2018</v>
+      </c>
+      <c r="C1160">
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1161">
+        <v>2019</v>
+      </c>
+      <c r="C1161">
+        <v>13599</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1162">
+        <v>2018</v>
+      </c>
+      <c r="C1162">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1163">
+        <v>2018</v>
+      </c>
+      <c r="C1163">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1164">
+        <v>2017</v>
+      </c>
+      <c r="C1164">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1165">
+        <v>2018</v>
+      </c>
+      <c r="C1165">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1166">
+        <v>2018</v>
+      </c>
+      <c r="C1166">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1167">
+        <v>2019</v>
+      </c>
+      <c r="C1167">
+        <v>14480</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1168">
+        <v>2020</v>
+      </c>
+      <c r="C1168">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1169">
+        <v>2020</v>
+      </c>
+      <c r="C1169">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1170">
+        <v>2020</v>
+      </c>
+      <c r="C1170">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1171">
+        <v>2020</v>
+      </c>
+      <c r="C1171">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1172">
+        <v>2020</v>
+      </c>
+      <c r="C1172">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1173">
+        <v>2020</v>
+      </c>
+      <c r="C1173">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1174">
+        <v>2020</v>
+      </c>
+      <c r="C1174">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1175">
+        <v>2020</v>
+      </c>
+      <c r="C1175">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1176">
+        <v>2020</v>
+      </c>
+      <c r="C1176">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1177">
+        <v>2020</v>
+      </c>
+      <c r="C1177">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1178">
+        <v>2020</v>
+      </c>
+      <c r="C1178">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1179">
+        <v>2019</v>
+      </c>
+      <c r="C1179">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1180">
+        <v>2019</v>
+      </c>
+      <c r="C1180">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1181">
+        <v>2019</v>
+      </c>
+      <c r="C1181">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1182">
+        <v>2017</v>
+      </c>
+      <c r="C1182">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1183">
+        <v>2021</v>
+      </c>
+      <c r="C1183">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1184">
+        <v>2020</v>
+      </c>
+      <c r="C1184">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1185">
+        <v>2020</v>
+      </c>
+      <c r="C1185">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1186">
+        <v>2018</v>
+      </c>
+      <c r="C1186">
+        <v>14444</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1187">
+        <v>2017</v>
+      </c>
+      <c r="C1187">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1188">
+        <v>2019</v>
+      </c>
+      <c r="C1188">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1189">
+        <v>2019</v>
+      </c>
+      <c r="C1189">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1190">
+        <v>2019</v>
+      </c>
+      <c r="C1190">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1191">
+        <v>2019</v>
+      </c>
+      <c r="C1191">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1192">
+        <v>2020</v>
+      </c>
+      <c r="C1192">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1193">
+        <v>2019</v>
+      </c>
+      <c r="C1193">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1194">
+        <v>2020</v>
+      </c>
+      <c r="C1194">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1195">
+        <v>2018</v>
+      </c>
+      <c r="C1195">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1196">
+        <v>2018</v>
+      </c>
+      <c r="C1196">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1197">
+        <v>2018</v>
+      </c>
+      <c r="C1197">
+        <v>14595</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1198">
+        <v>2019</v>
+      </c>
+      <c r="C1198">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1199">
+        <v>2018</v>
+      </c>
+      <c r="C1199">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1200">
+        <v>2020</v>
+      </c>
+      <c r="C1200">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1201">
+        <v>2018</v>
+      </c>
+      <c r="C1201">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1202">
+        <v>2017</v>
+      </c>
+      <c r="C1202">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1203">
+        <v>2020</v>
+      </c>
+      <c r="C1203">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1204">
+        <v>2017</v>
+      </c>
+      <c r="C1204">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1205">
+        <v>2017</v>
+      </c>
+      <c r="C1205">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1206">
+        <v>2018</v>
+      </c>
+      <c r="C1206">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1207">
+        <v>2018</v>
+      </c>
+      <c r="C1207">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1208">
+        <v>2018</v>
+      </c>
+      <c r="C1208">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1209">
+        <v>2018</v>
+      </c>
+      <c r="C1209">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1210">
+        <v>2018</v>
+      </c>
+      <c r="C1210">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1211">
+        <v>2018</v>
+      </c>
+      <c r="C1211">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1212">
+        <v>2017</v>
+      </c>
+      <c r="C1212">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1213">
+        <v>2018</v>
+      </c>
+      <c r="C1213">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1214">
+        <v>2019</v>
+      </c>
+      <c r="C1214">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1215">
+        <v>2017</v>
+      </c>
+      <c r="C1215">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1216">
+        <v>2017</v>
+      </c>
+      <c r="C1216">
+        <v>13390</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1217">
+        <v>2019</v>
+      </c>
+      <c r="C1217">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1218">
+        <v>2017</v>
+      </c>
+      <c r="C1218">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1219">
+        <v>2018</v>
+      </c>
+      <c r="C1219">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1220">
+        <v>2019</v>
+      </c>
+      <c r="C1220">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1221">
+        <v>2018</v>
+      </c>
+      <c r="C1221">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1222">
+        <v>2017</v>
+      </c>
+      <c r="C1222">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1223">
+        <v>2013</v>
+      </c>
+      <c r="C1223">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1224">
+        <v>2018</v>
+      </c>
+      <c r="C1224">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1225">
+        <v>2018</v>
+      </c>
+      <c r="C1225">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1226">
+        <v>2018</v>
+      </c>
+      <c r="C1226">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1227">
+        <v>2019</v>
+      </c>
+      <c r="C1227">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1228">
+        <v>2019</v>
+      </c>
+      <c r="C1228">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1229">
+        <v>2018</v>
+      </c>
+      <c r="C1229">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1230">
+        <v>2019</v>
+      </c>
+      <c r="C1230">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1231">
+        <v>2018</v>
+      </c>
+      <c r="C1231">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1232">
+        <v>2020</v>
+      </c>
+      <c r="C1232">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1233">
+        <v>2018</v>
+      </c>
+      <c r="C1233">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1234">
+        <v>2018</v>
+      </c>
+      <c r="C1234">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1235">
+        <v>2018</v>
+      </c>
+      <c r="C1235">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1236">
+        <v>2014</v>
+      </c>
+      <c r="C1236">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1237">
+        <v>2018</v>
+      </c>
+      <c r="C1237">
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1238">
+        <v>2018</v>
+      </c>
+      <c r="C1238">
+        <v>10490</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1239">
+        <v>2019</v>
+      </c>
+      <c r="C1239">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1240">
+        <v>2018</v>
+      </c>
+      <c r="C1240">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1241">
+        <v>2018</v>
+      </c>
+      <c r="C1241">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1242">
+        <v>2017</v>
+      </c>
+      <c r="C1242">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1243">
+        <v>2018</v>
+      </c>
+      <c r="C1243">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1244">
+        <v>2018</v>
+      </c>
+      <c r="C1244">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1245">
+        <v>2019</v>
+      </c>
+      <c r="C1245">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1246">
+        <v>2019</v>
+      </c>
+      <c r="C1246">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1247">
+        <v>2018</v>
+      </c>
+      <c r="C1247">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1248">
+        <v>2018</v>
+      </c>
+      <c r="C1248">
+        <v>12499</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1249">
+        <v>2020</v>
+      </c>
+      <c r="C1249">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1250">
+        <v>2019</v>
+      </c>
+      <c r="C1250">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1251">
+        <v>2018</v>
+      </c>
+      <c r="C1251">
+        <v>12966</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1252">
+        <v>2019</v>
+      </c>
+      <c r="C1252">
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1253">
+        <v>2018</v>
+      </c>
+      <c r="C1253">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1254">
+        <v>2018</v>
+      </c>
+      <c r="C1254">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1255">
+        <v>2018</v>
+      </c>
+      <c r="C1255">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1256">
+        <v>2014</v>
+      </c>
+      <c r="C1256">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1257">
+        <v>2017</v>
+      </c>
+      <c r="C1257">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1258">
+        <v>2014</v>
+      </c>
+      <c r="C1258">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1259">
+        <v>2018</v>
+      </c>
+      <c r="C1259">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1260">
+        <v>2018</v>
+      </c>
+      <c r="C1260">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1261">
+        <v>2017</v>
+      </c>
+      <c r="C1261">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1262">
+        <v>2017</v>
+      </c>
+      <c r="C1262">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1263">
+        <v>2018</v>
+      </c>
+      <c r="C1263">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1264">
+        <v>2018</v>
+      </c>
+      <c r="C1264">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1265">
+        <v>2017</v>
+      </c>
+      <c r="C1265">
+        <v>14995</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1266">
+        <v>2018</v>
+      </c>
+      <c r="C1266">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1267">
+        <v>2017</v>
+      </c>
+      <c r="C1267">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1268">
+        <v>2017</v>
+      </c>
+      <c r="C1268">
+        <v>12800</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1269">
+        <v>2018</v>
+      </c>
+      <c r="C1269">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1270">
+        <v>2018</v>
+      </c>
+      <c r="C1270">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1271">
+        <v>2017</v>
+      </c>
+      <c r="C1271">
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1272">
+        <v>2018</v>
+      </c>
+      <c r="C1272">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1273">
+        <v>2014</v>
+      </c>
+      <c r="C1273">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1274">
+        <v>2017</v>
+      </c>
+      <c r="C1274">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1275">
+        <v>2017</v>
+      </c>
+      <c r="C1275">
+        <v>13290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\UiPath\Assignment2-NotGreat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\UiPath\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AFADD2-E59F-4B4B-A134-9A5DCC5DC6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7788FD59-9C50-45AE-B126-66023B3572A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="2205" windowWidth="21600" windowHeight="7575" xr2:uid="{6F4DCAE2-0BA8-4075-A207-16147C0730BD}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{6F4DCAE2-0BA8-4075-A207-16147C0730BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="177">
   <si>
     <t>Nou
 Smart fortwo EQ 60kWed cool&amp;Audio SHZ Tempom Klima</t>
@@ -538,6 +538,72 @@
   <si>
     <t>Nou
 Smart smart EQ fortwo Cool u. Audio Einparkhilfe</t>
+  </si>
+  <si>
+    <t>Nou
+Smart fortwo EQ Bremsassi.+Tempomat+Cool&amp;Audio P.+15</t>
+  </si>
+  <si>
+    <t>Nou
+Smart SMART EQ FORTWO COOL &amp; AUDIO-PAKET</t>
+  </si>
+  <si>
+    <t>Nou
+Smart smart fortwo electric drive Tempomat Klima</t>
+  </si>
+  <si>
+    <t>Nou
+Smart fortwo EQ 60kWed passion cool&amp;Audio SHZ Komfort</t>
+  </si>
+  <si>
+    <t>Nou
+Smart EQ fortwo electric drive Cool &amp; Audio Klima</t>
+  </si>
+  <si>
+    <t>Nou
+Smart fortwo EQ 60kWed passion SHZ Pano PDC+Kamera</t>
+  </si>
+  <si>
+    <t>Nou
+Smart SMART FORTWO ELECTRIC DRIVE</t>
+  </si>
+  <si>
+    <t>Nou
+Smart EQ fortwo Passion Cool u. Audio,Sitze schwarz</t>
+  </si>
+  <si>
+    <t>Nou
+Smart Fortwo cabrio electric drive / EQ &gt;NAV/SHZ/TEMP&lt;</t>
+  </si>
+  <si>
+    <t>Nou
+Smart ForTwo Coupe EQ Prime 22kw 1. Hand HU 5/24 MwSt</t>
+  </si>
+  <si>
+    <t>Nou
+Smart fortwo coupe electric drive / EQ *Erst 2900KM*</t>
+  </si>
+  <si>
+    <t>Nou
+Smart fortwo + SPORTFAKET + NEBELSCHEINWERFER+ KLIMAAU</t>
+  </si>
+  <si>
+    <t>Smart smart fortwo cabrio electric drive</t>
+  </si>
+  <si>
+    <t>Smart smart EQ fortwo 22KW Lader Cool Media Pano Sitzh</t>
+  </si>
+  <si>
+    <t>Smart Fortwo Coupe Electric Drive / EQ*Navi*RFk*Klima*</t>
+  </si>
+  <si>
+    <t>Smart ForTwo coupé I Passion I Panorama I Touch I SHZ</t>
+  </si>
+  <si>
+    <t>Smart fortwo cabrio electric drive/EQ/Ink Batterie 1Ha</t>
+  </si>
+  <si>
+    <t>Smart ForTwo Coupe electric drive / EQ **COOL&amp;AUDIO**</t>
   </si>
 </sst>
 </file>
@@ -892,7 +958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC75D6E0-055B-4EAB-9665-2EF495132E7E}">
-  <dimension ref="A1:C1275"/>
+  <dimension ref="A1:C1485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14923,6 +14989,2316 @@
         <v>13290</v>
       </c>
     </row>
+    <row r="1276" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1276" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1276">
+        <v>2018</v>
+      </c>
+      <c r="C1276">
+        <v>10770</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1277" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1277">
+        <v>2020</v>
+      </c>
+      <c r="C1277">
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1278" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1278">
+        <v>2018</v>
+      </c>
+      <c r="C1278">
+        <v>13450</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1279" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1279">
+        <v>2018</v>
+      </c>
+      <c r="C1279">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1280" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1280">
+        <v>2019</v>
+      </c>
+      <c r="C1280">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1281" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1281">
+        <v>2020</v>
+      </c>
+      <c r="C1281">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1282" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1282">
+        <v>2020</v>
+      </c>
+      <c r="C1282">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1283" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1283">
+        <v>2017</v>
+      </c>
+      <c r="C1283">
+        <v>11940</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1284" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1284">
+        <v>2019</v>
+      </c>
+      <c r="C1284">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1285" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1285">
+        <v>2017</v>
+      </c>
+      <c r="C1285">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1286" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1286">
+        <v>2019</v>
+      </c>
+      <c r="C1286">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1287" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1287">
+        <v>2020</v>
+      </c>
+      <c r="C1287">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1288" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1288">
+        <v>2018</v>
+      </c>
+      <c r="C1288">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1289" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1289">
+        <v>2019</v>
+      </c>
+      <c r="C1289">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1290" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1290">
+        <v>2019</v>
+      </c>
+      <c r="C1290">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1291" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1291">
+        <v>2019</v>
+      </c>
+      <c r="C1291">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1292" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1292">
+        <v>2020</v>
+      </c>
+      <c r="C1292">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1293" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1293">
+        <v>2018</v>
+      </c>
+      <c r="C1293">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1294" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1294">
+        <v>2017</v>
+      </c>
+      <c r="C1294">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1295" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1295">
+        <v>2018</v>
+      </c>
+      <c r="C1295">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1296" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1296">
+        <v>2020</v>
+      </c>
+      <c r="C1296">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1297" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1297">
+        <v>2020</v>
+      </c>
+      <c r="C1297">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1298" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1298">
+        <v>2020</v>
+      </c>
+      <c r="C1298">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1299" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1299">
+        <v>2020</v>
+      </c>
+      <c r="C1299">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1300" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1300">
+        <v>2020</v>
+      </c>
+      <c r="C1300">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1301" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1301">
+        <v>2019</v>
+      </c>
+      <c r="C1301">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1302" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1302">
+        <v>2019</v>
+      </c>
+      <c r="C1302">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1303" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1303">
+        <v>2017</v>
+      </c>
+      <c r="C1303">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1304" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1304">
+        <v>2019</v>
+      </c>
+      <c r="C1304">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1305" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1305">
+        <v>2019</v>
+      </c>
+      <c r="C1305">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1306">
+        <v>2017</v>
+      </c>
+      <c r="C1306">
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1307" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1307">
+        <v>2017</v>
+      </c>
+      <c r="C1307">
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1308" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1308">
+        <v>2020</v>
+      </c>
+      <c r="C1308">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1309" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1309">
+        <v>2017</v>
+      </c>
+      <c r="C1309">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1310" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1310">
+        <v>2019</v>
+      </c>
+      <c r="C1310">
+        <v>13850</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1311" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1311">
+        <v>2019</v>
+      </c>
+      <c r="C1311">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1312" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1312">
+        <v>2018</v>
+      </c>
+      <c r="C1312">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1313" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1313">
+        <v>2017</v>
+      </c>
+      <c r="C1313">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1314" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1314">
+        <v>2017</v>
+      </c>
+      <c r="C1314">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1315">
+        <v>2018</v>
+      </c>
+      <c r="C1315">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1316">
+        <v>2018</v>
+      </c>
+      <c r="C1316">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1317">
+        <v>2018</v>
+      </c>
+      <c r="C1317">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1318">
+        <v>2019</v>
+      </c>
+      <c r="C1318">
+        <v>14799</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1319">
+        <v>2017</v>
+      </c>
+      <c r="C1319">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1320">
+        <v>2019</v>
+      </c>
+      <c r="C1320">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1321">
+        <v>2019</v>
+      </c>
+      <c r="C1321">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1322">
+        <v>2016</v>
+      </c>
+      <c r="C1322">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1323">
+        <v>2018</v>
+      </c>
+      <c r="C1323">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1324">
+        <v>2019</v>
+      </c>
+      <c r="C1324">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1325">
+        <v>2019</v>
+      </c>
+      <c r="C1325">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1326">
+        <v>2018</v>
+      </c>
+      <c r="C1326">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1327">
+        <v>2018</v>
+      </c>
+      <c r="C1327">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1328">
+        <v>2019</v>
+      </c>
+      <c r="C1328">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1329">
+        <v>2019</v>
+      </c>
+      <c r="C1329">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1330">
+        <v>2020</v>
+      </c>
+      <c r="C1330">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1331">
+        <v>2017</v>
+      </c>
+      <c r="C1331">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1332">
+        <v>2019</v>
+      </c>
+      <c r="C1332">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1333">
+        <v>2020</v>
+      </c>
+      <c r="C1333">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1334">
+        <v>2020</v>
+      </c>
+      <c r="C1334">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1335">
+        <v>2020</v>
+      </c>
+      <c r="C1335">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1336">
+        <v>2020</v>
+      </c>
+      <c r="C1336">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1337">
+        <v>2020</v>
+      </c>
+      <c r="C1337">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1338">
+        <v>2018</v>
+      </c>
+      <c r="C1338">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1339">
+        <v>2015</v>
+      </c>
+      <c r="C1339">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1340">
+        <v>2018</v>
+      </c>
+      <c r="C1340">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1341">
+        <v>2017</v>
+      </c>
+      <c r="C1341">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1342">
+        <v>2020</v>
+      </c>
+      <c r="C1342">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1343">
+        <v>2020</v>
+      </c>
+      <c r="C1343">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1344">
+        <v>2018</v>
+      </c>
+      <c r="C1344">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1345">
+        <v>2020</v>
+      </c>
+      <c r="C1345">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1346">
+        <v>2020</v>
+      </c>
+      <c r="C1346">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1347">
+        <v>2020</v>
+      </c>
+      <c r="C1347">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1348">
+        <v>2017</v>
+      </c>
+      <c r="C1348">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1349">
+        <v>2020</v>
+      </c>
+      <c r="C1349">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1350">
+        <v>2020</v>
+      </c>
+      <c r="C1350">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1351">
+        <v>2018</v>
+      </c>
+      <c r="C1351">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1352">
+        <v>2019</v>
+      </c>
+      <c r="C1352">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1353">
+        <v>2017</v>
+      </c>
+      <c r="C1353">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1354">
+        <v>2018</v>
+      </c>
+      <c r="C1354">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1355">
+        <v>2020</v>
+      </c>
+      <c r="C1355">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1356">
+        <v>2019</v>
+      </c>
+      <c r="C1356">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1357">
+        <v>2020</v>
+      </c>
+      <c r="C1357">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1358">
+        <v>2020</v>
+      </c>
+      <c r="C1358">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1359">
+        <v>2018</v>
+      </c>
+      <c r="C1359">
+        <v>12799</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1360">
+        <v>2018</v>
+      </c>
+      <c r="C1360">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1361">
+        <v>2017</v>
+      </c>
+      <c r="C1361">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1362">
+        <v>2017</v>
+      </c>
+      <c r="C1362">
+        <v>11855</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1363">
+        <v>2018</v>
+      </c>
+      <c r="C1363">
+        <v>12888</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1364">
+        <v>2017</v>
+      </c>
+      <c r="C1364">
+        <v>12890</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1365">
+        <v>2018</v>
+      </c>
+      <c r="C1365">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1366">
+        <v>2015</v>
+      </c>
+      <c r="C1366">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1367">
+        <v>2020</v>
+      </c>
+      <c r="C1367">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1368">
+        <v>2019</v>
+      </c>
+      <c r="C1368">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1369">
+        <v>2019</v>
+      </c>
+      <c r="C1369">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1370">
+        <v>2020</v>
+      </c>
+      <c r="C1370">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1371">
+        <v>2020</v>
+      </c>
+      <c r="C1371">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1372">
+        <v>2020</v>
+      </c>
+      <c r="C1372">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1373">
+        <v>2020</v>
+      </c>
+      <c r="C1373">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1374">
+        <v>2019</v>
+      </c>
+      <c r="C1374">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1375">
+        <v>2018</v>
+      </c>
+      <c r="C1375">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1376">
+        <v>2018</v>
+      </c>
+      <c r="C1376">
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1377">
+        <v>2019</v>
+      </c>
+      <c r="C1377">
+        <v>13599</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1378">
+        <v>2018</v>
+      </c>
+      <c r="C1378">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1379">
+        <v>2018</v>
+      </c>
+      <c r="C1379">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1380">
+        <v>2017</v>
+      </c>
+      <c r="C1380">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1381">
+        <v>2018</v>
+      </c>
+      <c r="C1381">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1382">
+        <v>2018</v>
+      </c>
+      <c r="C1382">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1383">
+        <v>2019</v>
+      </c>
+      <c r="C1383">
+        <v>14480</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1384">
+        <v>2020</v>
+      </c>
+      <c r="C1384">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1385">
+        <v>2020</v>
+      </c>
+      <c r="C1385">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1386">
+        <v>2020</v>
+      </c>
+      <c r="C1386">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1387">
+        <v>2020</v>
+      </c>
+      <c r="C1387">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1388">
+        <v>2020</v>
+      </c>
+      <c r="C1388">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1389">
+        <v>2020</v>
+      </c>
+      <c r="C1389">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1390">
+        <v>2020</v>
+      </c>
+      <c r="C1390">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1391">
+        <v>2020</v>
+      </c>
+      <c r="C1391">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1392">
+        <v>2020</v>
+      </c>
+      <c r="C1392">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1393">
+        <v>2020</v>
+      </c>
+      <c r="C1393">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1394">
+        <v>2020</v>
+      </c>
+      <c r="C1394">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1395">
+        <v>2019</v>
+      </c>
+      <c r="C1395">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1396">
+        <v>2019</v>
+      </c>
+      <c r="C1396">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1397">
+        <v>2019</v>
+      </c>
+      <c r="C1397">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1398">
+        <v>2017</v>
+      </c>
+      <c r="C1398">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1399">
+        <v>2021</v>
+      </c>
+      <c r="C1399">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1400">
+        <v>2020</v>
+      </c>
+      <c r="C1400">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1401">
+        <v>2018</v>
+      </c>
+      <c r="C1401">
+        <v>14444</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1402">
+        <v>2017</v>
+      </c>
+      <c r="C1402">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1403">
+        <v>2019</v>
+      </c>
+      <c r="C1403">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1404">
+        <v>2019</v>
+      </c>
+      <c r="C1404">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1405">
+        <v>2019</v>
+      </c>
+      <c r="C1405">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1406">
+        <v>2019</v>
+      </c>
+      <c r="C1406">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1407">
+        <v>2020</v>
+      </c>
+      <c r="C1407">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1408">
+        <v>2019</v>
+      </c>
+      <c r="C1408">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1409">
+        <v>2020</v>
+      </c>
+      <c r="C1409">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1410">
+        <v>2018</v>
+      </c>
+      <c r="C1410">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1411">
+        <v>2018</v>
+      </c>
+      <c r="C1411">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1412">
+        <v>2018</v>
+      </c>
+      <c r="C1412">
+        <v>14595</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1413">
+        <v>2019</v>
+      </c>
+      <c r="C1413">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1414">
+        <v>2018</v>
+      </c>
+      <c r="C1414">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1415">
+        <v>2020</v>
+      </c>
+      <c r="C1415">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1416">
+        <v>2018</v>
+      </c>
+      <c r="C1416">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1417">
+        <v>2017</v>
+      </c>
+      <c r="C1417">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1418">
+        <v>2020</v>
+      </c>
+      <c r="C1418">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1419">
+        <v>2017</v>
+      </c>
+      <c r="C1419">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1420">
+        <v>2017</v>
+      </c>
+      <c r="C1420">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1421">
+        <v>2018</v>
+      </c>
+      <c r="C1421">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1422">
+        <v>2018</v>
+      </c>
+      <c r="C1422">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1423">
+        <v>2018</v>
+      </c>
+      <c r="C1423">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1424">
+        <v>2018</v>
+      </c>
+      <c r="C1424">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1425">
+        <v>2018</v>
+      </c>
+      <c r="C1425">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1426">
+        <v>2018</v>
+      </c>
+      <c r="C1426">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1427">
+        <v>2017</v>
+      </c>
+      <c r="C1427">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1428">
+        <v>2018</v>
+      </c>
+      <c r="C1428">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1429">
+        <v>2019</v>
+      </c>
+      <c r="C1429">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1430">
+        <v>2017</v>
+      </c>
+      <c r="C1430">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1431">
+        <v>2017</v>
+      </c>
+      <c r="C1431">
+        <v>13390</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1432">
+        <v>2019</v>
+      </c>
+      <c r="C1432">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1433">
+        <v>2017</v>
+      </c>
+      <c r="C1433">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1434">
+        <v>2018</v>
+      </c>
+      <c r="C1434">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1435">
+        <v>2019</v>
+      </c>
+      <c r="C1435">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1436">
+        <v>2018</v>
+      </c>
+      <c r="C1436">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1437">
+        <v>2017</v>
+      </c>
+      <c r="C1437">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1438">
+        <v>2013</v>
+      </c>
+      <c r="C1438">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1439">
+        <v>2018</v>
+      </c>
+      <c r="C1439">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1440">
+        <v>2018</v>
+      </c>
+      <c r="C1440">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1441">
+        <v>2018</v>
+      </c>
+      <c r="C1441">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1442">
+        <v>2019</v>
+      </c>
+      <c r="C1442">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1443">
+        <v>2019</v>
+      </c>
+      <c r="C1443">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1444">
+        <v>2019</v>
+      </c>
+      <c r="C1444">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1445">
+        <v>2018</v>
+      </c>
+      <c r="C1445">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1446">
+        <v>2020</v>
+      </c>
+      <c r="C1446">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1447">
+        <v>2018</v>
+      </c>
+      <c r="C1447">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1448">
+        <v>2018</v>
+      </c>
+      <c r="C1448">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1449">
+        <v>2018</v>
+      </c>
+      <c r="C1449">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1450">
+        <v>2014</v>
+      </c>
+      <c r="C1450">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1451">
+        <v>2018</v>
+      </c>
+      <c r="C1451">
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1452">
+        <v>2018</v>
+      </c>
+      <c r="C1452">
+        <v>10490</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1453">
+        <v>2019</v>
+      </c>
+      <c r="C1453">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1454">
+        <v>2018</v>
+      </c>
+      <c r="C1454">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1455">
+        <v>2018</v>
+      </c>
+      <c r="C1455">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1456">
+        <v>2018</v>
+      </c>
+      <c r="C1456">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1457">
+        <v>2018</v>
+      </c>
+      <c r="C1457">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1458">
+        <v>2019</v>
+      </c>
+      <c r="C1458">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1459">
+        <v>2019</v>
+      </c>
+      <c r="C1459">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1460" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1460">
+        <v>2018</v>
+      </c>
+      <c r="C1460">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1461" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1461">
+        <v>2018</v>
+      </c>
+      <c r="C1461">
+        <v>12499</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1462" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1462">
+        <v>2020</v>
+      </c>
+      <c r="C1462">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1463" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1463">
+        <v>2018</v>
+      </c>
+      <c r="C1463">
+        <v>12966</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1464" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1464">
+        <v>2019</v>
+      </c>
+      <c r="C1464">
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1465" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1465">
+        <v>2018</v>
+      </c>
+      <c r="C1465">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1466" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1466">
+        <v>2018</v>
+      </c>
+      <c r="C1466">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1467" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1467">
+        <v>2018</v>
+      </c>
+      <c r="C1467">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1468" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1468">
+        <v>2014</v>
+      </c>
+      <c r="C1468">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1469" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1469">
+        <v>2017</v>
+      </c>
+      <c r="C1469">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1470" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1470">
+        <v>2014</v>
+      </c>
+      <c r="C1470">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1471" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1471">
+        <v>2018</v>
+      </c>
+      <c r="C1471">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1472">
+        <v>2018</v>
+      </c>
+      <c r="C1472">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1473">
+        <v>2017</v>
+      </c>
+      <c r="C1473">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1474">
+        <v>2017</v>
+      </c>
+      <c r="C1474">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1475">
+        <v>2018</v>
+      </c>
+      <c r="C1475">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1476">
+        <v>2018</v>
+      </c>
+      <c r="C1476">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1477">
+        <v>2017</v>
+      </c>
+      <c r="C1477">
+        <v>14995</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1478">
+        <v>2018</v>
+      </c>
+      <c r="C1478">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1479">
+        <v>2018</v>
+      </c>
+      <c r="C1479">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1480">
+        <v>2018</v>
+      </c>
+      <c r="C1480">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1481" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1481">
+        <v>2017</v>
+      </c>
+      <c r="C1481">
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1482" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1482">
+        <v>2018</v>
+      </c>
+      <c r="C1482">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1483" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1483">
+        <v>2014</v>
+      </c>
+      <c r="C1483">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1484" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1484">
+        <v>2017</v>
+      </c>
+      <c r="C1484">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1485" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1485">
+        <v>2017</v>
+      </c>
+      <c r="C1485">
+        <v>13290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dee\Documents\UiPath\Assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7788FD59-9C50-45AE-B126-66023B3572A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745683A-D2A3-419F-956A-7A2294ECFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{6F4DCAE2-0BA8-4075-A207-16147C0730BD}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{6F4DCAE2-0BA8-4075-A207-16147C0730BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="177">
   <si>
     <t>Nou
 Smart fortwo EQ 60kWed cool&amp;Audio SHZ Tempom Klima</t>
@@ -958,7 +958,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC75D6E0-055B-4EAB-9665-2EF495132E7E}">
-  <dimension ref="A1:C1485"/>
+  <dimension ref="A1:C1694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17299,6 +17299,2305 @@
         <v>13290</v>
       </c>
     </row>
+    <row r="1486" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1486" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1486">
+        <v>2018</v>
+      </c>
+      <c r="C1486">
+        <v>10770</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1487" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1487">
+        <v>2020</v>
+      </c>
+      <c r="C1487">
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1488" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1488">
+        <v>2018</v>
+      </c>
+      <c r="C1488">
+        <v>13450</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1489" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1489">
+        <v>2018</v>
+      </c>
+      <c r="C1489">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1490" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1490">
+        <v>2019</v>
+      </c>
+      <c r="C1490">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1491" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1491">
+        <v>2020</v>
+      </c>
+      <c r="C1491">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1492" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1492">
+        <v>2020</v>
+      </c>
+      <c r="C1492">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1493" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1493">
+        <v>2017</v>
+      </c>
+      <c r="C1493">
+        <v>11940</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1494" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1494">
+        <v>2019</v>
+      </c>
+      <c r="C1494">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1495" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1495">
+        <v>2017</v>
+      </c>
+      <c r="C1495">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1496" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1496">
+        <v>2019</v>
+      </c>
+      <c r="C1496">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1497" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1497">
+        <v>2020</v>
+      </c>
+      <c r="C1497">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1498" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1498">
+        <v>2018</v>
+      </c>
+      <c r="C1498">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1499" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1499">
+        <v>2019</v>
+      </c>
+      <c r="C1499">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1500" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1500">
+        <v>2019</v>
+      </c>
+      <c r="C1500">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1501" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1501">
+        <v>2019</v>
+      </c>
+      <c r="C1501">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1502" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1502">
+        <v>2020</v>
+      </c>
+      <c r="C1502">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1503" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1503">
+        <v>2018</v>
+      </c>
+      <c r="C1503">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1504" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1504">
+        <v>2017</v>
+      </c>
+      <c r="C1504">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1505" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1505">
+        <v>2018</v>
+      </c>
+      <c r="C1505">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1506" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1506">
+        <v>2020</v>
+      </c>
+      <c r="C1506">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1507" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1507">
+        <v>2020</v>
+      </c>
+      <c r="C1507">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1508" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1508">
+        <v>2020</v>
+      </c>
+      <c r="C1508">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1509" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1509">
+        <v>2020</v>
+      </c>
+      <c r="C1509">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1510" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1510">
+        <v>2020</v>
+      </c>
+      <c r="C1510">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1511" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1511">
+        <v>2019</v>
+      </c>
+      <c r="C1511">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1512" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1512">
+        <v>2019</v>
+      </c>
+      <c r="C1512">
+        <v>13950</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1513" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1513">
+        <v>2017</v>
+      </c>
+      <c r="C1513">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1514" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1514">
+        <v>2019</v>
+      </c>
+      <c r="C1514">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1515" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1515">
+        <v>2019</v>
+      </c>
+      <c r="C1515">
+        <v>11890</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1516" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1516">
+        <v>2017</v>
+      </c>
+      <c r="C1516">
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1517" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1517">
+        <v>2017</v>
+      </c>
+      <c r="C1517">
+        <v>11979</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1518" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1518">
+        <v>2020</v>
+      </c>
+      <c r="C1518">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1519" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1519">
+        <v>2017</v>
+      </c>
+      <c r="C1519">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1520" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1520">
+        <v>2019</v>
+      </c>
+      <c r="C1520">
+        <v>13850</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1521" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1521">
+        <v>2019</v>
+      </c>
+      <c r="C1521">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A1522" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1522">
+        <v>2018</v>
+      </c>
+      <c r="C1522">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1523" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1523">
+        <v>2017</v>
+      </c>
+      <c r="C1523">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1524" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1524">
+        <v>2017</v>
+      </c>
+      <c r="C1524">
+        <v>12790</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1525" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1525">
+        <v>2018</v>
+      </c>
+      <c r="C1525">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1526" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1526">
+        <v>2018</v>
+      </c>
+      <c r="C1526">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1527" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1527">
+        <v>2018</v>
+      </c>
+      <c r="C1527">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1528" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1528">
+        <v>2019</v>
+      </c>
+      <c r="C1528">
+        <v>14799</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1529" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1529">
+        <v>2017</v>
+      </c>
+      <c r="C1529">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1530" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1530">
+        <v>2019</v>
+      </c>
+      <c r="C1530">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1531" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1531">
+        <v>2019</v>
+      </c>
+      <c r="C1531">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1532" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1532">
+        <v>2016</v>
+      </c>
+      <c r="C1532">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1533" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1533">
+        <v>2018</v>
+      </c>
+      <c r="C1533">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1534" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1534">
+        <v>2019</v>
+      </c>
+      <c r="C1534">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1535" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1535">
+        <v>2019</v>
+      </c>
+      <c r="C1535">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1536" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1536">
+        <v>2018</v>
+      </c>
+      <c r="C1536">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1537" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1537">
+        <v>2018</v>
+      </c>
+      <c r="C1537">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1538" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1538">
+        <v>2019</v>
+      </c>
+      <c r="C1538">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1539" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1539">
+        <v>2019</v>
+      </c>
+      <c r="C1539">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1540" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1540">
+        <v>2020</v>
+      </c>
+      <c r="C1540">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1541" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1541">
+        <v>2017</v>
+      </c>
+      <c r="C1541">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1542" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1542">
+        <v>2019</v>
+      </c>
+      <c r="C1542">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1543" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1543">
+        <v>2020</v>
+      </c>
+      <c r="C1543">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1544" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1544">
+        <v>2020</v>
+      </c>
+      <c r="C1544">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1545" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1545">
+        <v>2020</v>
+      </c>
+      <c r="C1545">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1546" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1546">
+        <v>2020</v>
+      </c>
+      <c r="C1546">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1547" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1547">
+        <v>2020</v>
+      </c>
+      <c r="C1547">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1548" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1548">
+        <v>2018</v>
+      </c>
+      <c r="C1548">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1549" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1549">
+        <v>2015</v>
+      </c>
+      <c r="C1549">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1550" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1550">
+        <v>2018</v>
+      </c>
+      <c r="C1550">
+        <v>14750</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1551" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1551">
+        <v>2017</v>
+      </c>
+      <c r="C1551">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1552" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1552">
+        <v>2020</v>
+      </c>
+      <c r="C1552">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1553" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1553">
+        <v>2020</v>
+      </c>
+      <c r="C1553">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1554" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1554">
+        <v>2018</v>
+      </c>
+      <c r="C1554">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1555" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1555">
+        <v>2020</v>
+      </c>
+      <c r="C1555">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1556" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1556">
+        <v>2020</v>
+      </c>
+      <c r="C1556">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1557" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1557">
+        <v>2020</v>
+      </c>
+      <c r="C1557">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1558" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1558">
+        <v>2017</v>
+      </c>
+      <c r="C1558">
+        <v>12390</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1559" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1559">
+        <v>2020</v>
+      </c>
+      <c r="C1559">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1560" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1560">
+        <v>2020</v>
+      </c>
+      <c r="C1560">
+        <v>14849</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1561" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1561">
+        <v>2018</v>
+      </c>
+      <c r="C1561">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1562" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1562">
+        <v>2019</v>
+      </c>
+      <c r="C1562">
+        <v>12510</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1563" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1563">
+        <v>2017</v>
+      </c>
+      <c r="C1563">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1564" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1564">
+        <v>2018</v>
+      </c>
+      <c r="C1564">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1565" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1565">
+        <v>2020</v>
+      </c>
+      <c r="C1565">
+        <v>14980</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1566" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1566">
+        <v>2019</v>
+      </c>
+      <c r="C1566">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1567" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1567">
+        <v>2020</v>
+      </c>
+      <c r="C1567">
+        <v>14555</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1568" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1568">
+        <v>2020</v>
+      </c>
+      <c r="C1568">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1569" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1569">
+        <v>2018</v>
+      </c>
+      <c r="C1569">
+        <v>12799</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1570" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1570">
+        <v>2018</v>
+      </c>
+      <c r="C1570">
+        <v>11980</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1571" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1571">
+        <v>2017</v>
+      </c>
+      <c r="C1571">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1572" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1572">
+        <v>2017</v>
+      </c>
+      <c r="C1572">
+        <v>11855</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1573" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1573">
+        <v>2018</v>
+      </c>
+      <c r="C1573">
+        <v>12888</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1574" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1574">
+        <v>2017</v>
+      </c>
+      <c r="C1574">
+        <v>12890</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1575" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1575">
+        <v>2018</v>
+      </c>
+      <c r="C1575">
+        <v>13888</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1576" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1576">
+        <v>2015</v>
+      </c>
+      <c r="C1576">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1577" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1577">
+        <v>2020</v>
+      </c>
+      <c r="C1577">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1578" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1578">
+        <v>2019</v>
+      </c>
+      <c r="C1578">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1579" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1579">
+        <v>2019</v>
+      </c>
+      <c r="C1579">
+        <v>11950</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1580" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1580">
+        <v>2020</v>
+      </c>
+      <c r="C1580">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1581" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1581">
+        <v>2020</v>
+      </c>
+      <c r="C1581">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1582" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1582">
+        <v>2020</v>
+      </c>
+      <c r="C1582">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1583" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1583">
+        <v>2020</v>
+      </c>
+      <c r="C1583">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1584" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1584">
+        <v>2019</v>
+      </c>
+      <c r="C1584">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1585" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1585">
+        <v>2018</v>
+      </c>
+      <c r="C1585">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1586" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1586">
+        <v>2018</v>
+      </c>
+      <c r="C1586">
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1587" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1587">
+        <v>2019</v>
+      </c>
+      <c r="C1587">
+        <v>13599</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1588" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1588">
+        <v>2018</v>
+      </c>
+      <c r="C1588">
+        <v>13700</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1589" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1589">
+        <v>2018</v>
+      </c>
+      <c r="C1589">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1590" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1590">
+        <v>2017</v>
+      </c>
+      <c r="C1590">
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1591" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1591">
+        <v>2018</v>
+      </c>
+      <c r="C1591">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1592" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1592">
+        <v>2018</v>
+      </c>
+      <c r="C1592">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1593" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1593">
+        <v>2019</v>
+      </c>
+      <c r="C1593">
+        <v>14480</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1594" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1594">
+        <v>2020</v>
+      </c>
+      <c r="C1594">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1595" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1595">
+        <v>2020</v>
+      </c>
+      <c r="C1595">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1596" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1596">
+        <v>2020</v>
+      </c>
+      <c r="C1596">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1597" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1597">
+        <v>2020</v>
+      </c>
+      <c r="C1597">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1598" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1598">
+        <v>2020</v>
+      </c>
+      <c r="C1598">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1599" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1599">
+        <v>2020</v>
+      </c>
+      <c r="C1599">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1600" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1600">
+        <v>2020</v>
+      </c>
+      <c r="C1600">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1601" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1601">
+        <v>2020</v>
+      </c>
+      <c r="C1601">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1602" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1602">
+        <v>2020</v>
+      </c>
+      <c r="C1602">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1603" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1603">
+        <v>2020</v>
+      </c>
+      <c r="C1603">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1604" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1604">
+        <v>2020</v>
+      </c>
+      <c r="C1604">
+        <v>14890</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1605" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1605">
+        <v>2019</v>
+      </c>
+      <c r="C1605">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1606" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1606">
+        <v>2019</v>
+      </c>
+      <c r="C1606">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1607" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1607">
+        <v>2019</v>
+      </c>
+      <c r="C1607">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1608" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1608">
+        <v>2017</v>
+      </c>
+      <c r="C1608">
+        <v>14600</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1609" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1609">
+        <v>2021</v>
+      </c>
+      <c r="C1609">
+        <v>14999</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1610" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1610">
+        <v>2020</v>
+      </c>
+      <c r="C1610">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1611" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1611">
+        <v>2018</v>
+      </c>
+      <c r="C1611">
+        <v>14444</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1612" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1612">
+        <v>2017</v>
+      </c>
+      <c r="C1612">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1613" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1613">
+        <v>2019</v>
+      </c>
+      <c r="C1613">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1614" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1614">
+        <v>2019</v>
+      </c>
+      <c r="C1614">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1615" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1615">
+        <v>2019</v>
+      </c>
+      <c r="C1615">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1616" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1616">
+        <v>2019</v>
+      </c>
+      <c r="C1616">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1617" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1617">
+        <v>2020</v>
+      </c>
+      <c r="C1617">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1618" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1618">
+        <v>2019</v>
+      </c>
+      <c r="C1618">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1619" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1619">
+        <v>2020</v>
+      </c>
+      <c r="C1619">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1620" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1620">
+        <v>2018</v>
+      </c>
+      <c r="C1620">
+        <v>13890</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1621" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1621">
+        <v>2018</v>
+      </c>
+      <c r="C1621">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1622" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1622">
+        <v>2018</v>
+      </c>
+      <c r="C1622">
+        <v>14595</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1623" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1623">
+        <v>2019</v>
+      </c>
+      <c r="C1623">
+        <v>14880</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1624" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1624">
+        <v>2018</v>
+      </c>
+      <c r="C1624">
+        <v>13790</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1625" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1625">
+        <v>2020</v>
+      </c>
+      <c r="C1625">
+        <v>13999</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1626" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1626">
+        <v>2018</v>
+      </c>
+      <c r="C1626">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1627" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1627">
+        <v>2017</v>
+      </c>
+      <c r="C1627">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1628" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1628">
+        <v>2020</v>
+      </c>
+      <c r="C1628">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1629" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1629">
+        <v>2017</v>
+      </c>
+      <c r="C1629">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1630" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1630">
+        <v>2017</v>
+      </c>
+      <c r="C1630">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1631" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1631">
+        <v>2018</v>
+      </c>
+      <c r="C1631">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1632" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1632">
+        <v>2018</v>
+      </c>
+      <c r="C1632">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1633" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1633">
+        <v>2018</v>
+      </c>
+      <c r="C1633">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1634" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1634">
+        <v>2018</v>
+      </c>
+      <c r="C1634">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1635" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1635">
+        <v>2018</v>
+      </c>
+      <c r="C1635">
+        <v>12999</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1636" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1636">
+        <v>2018</v>
+      </c>
+      <c r="C1636">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1637" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1637">
+        <v>2018</v>
+      </c>
+      <c r="C1637">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1638" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1638">
+        <v>2019</v>
+      </c>
+      <c r="C1638">
+        <v>14990</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1639" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1639">
+        <v>2017</v>
+      </c>
+      <c r="C1639">
+        <v>14290</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1640" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1640">
+        <v>2017</v>
+      </c>
+      <c r="C1640">
+        <v>13390</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1641" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1641">
+        <v>2019</v>
+      </c>
+      <c r="C1641">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1642" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1642">
+        <v>2017</v>
+      </c>
+      <c r="C1642">
+        <v>12690</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1643" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1643">
+        <v>2018</v>
+      </c>
+      <c r="C1643">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1644" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1644">
+        <v>2019</v>
+      </c>
+      <c r="C1644">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1645" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1645">
+        <v>2018</v>
+      </c>
+      <c r="C1645">
+        <v>11720</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1646" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1646">
+        <v>2017</v>
+      </c>
+      <c r="C1646">
+        <v>13333</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1647" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1647">
+        <v>2013</v>
+      </c>
+      <c r="C1647">
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1648" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1648">
+        <v>2018</v>
+      </c>
+      <c r="C1648">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1649" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1649">
+        <v>2018</v>
+      </c>
+      <c r="C1649">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1650" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1650">
+        <v>2018</v>
+      </c>
+      <c r="C1650">
+        <v>12990</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1651" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1651">
+        <v>2019</v>
+      </c>
+      <c r="C1651">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1652" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1652">
+        <v>2019</v>
+      </c>
+      <c r="C1652">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1653" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1653">
+        <v>2019</v>
+      </c>
+      <c r="C1653">
+        <v>13930</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1654" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1654">
+        <v>2018</v>
+      </c>
+      <c r="C1654">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1655" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1655">
+        <v>2020</v>
+      </c>
+      <c r="C1655">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1656" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1656">
+        <v>2018</v>
+      </c>
+      <c r="C1656">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1657" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1657">
+        <v>2018</v>
+      </c>
+      <c r="C1657">
+        <v>12689</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1658" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1658">
+        <v>2018</v>
+      </c>
+      <c r="C1658">
+        <v>13990</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1659" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1659">
+        <v>2014</v>
+      </c>
+      <c r="C1659">
+        <v>13479</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1660" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1660">
+        <v>2018</v>
+      </c>
+      <c r="C1660">
+        <v>12195</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1661" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1661">
+        <v>2018</v>
+      </c>
+      <c r="C1661">
+        <v>10490</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1662" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1662">
+        <v>2019</v>
+      </c>
+      <c r="C1662">
+        <v>14979</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1663" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1663">
+        <v>2018</v>
+      </c>
+      <c r="C1663">
+        <v>11290</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1664" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1664">
+        <v>2018</v>
+      </c>
+      <c r="C1664">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1665" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1665">
+        <v>2018</v>
+      </c>
+      <c r="C1665">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1666" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1666">
+        <v>2018</v>
+      </c>
+      <c r="C1666">
+        <v>14490</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1667" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1667">
+        <v>2019</v>
+      </c>
+      <c r="C1667">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1668" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1668">
+        <v>2019</v>
+      </c>
+      <c r="C1668">
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1669" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1669">
+        <v>2018</v>
+      </c>
+      <c r="C1669">
+        <v>12099</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1670" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1670">
+        <v>2018</v>
+      </c>
+      <c r="C1670">
+        <v>12499</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1671" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1671">
+        <v>2020</v>
+      </c>
+      <c r="C1671">
+        <v>14875</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1672" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1672">
+        <v>2018</v>
+      </c>
+      <c r="C1672">
+        <v>12966</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1673" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1673">
+        <v>2019</v>
+      </c>
+      <c r="C1673">
+        <v>12820</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1674" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1674">
+        <v>2018</v>
+      </c>
+      <c r="C1674">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1675" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1675">
+        <v>2018</v>
+      </c>
+      <c r="C1675">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1676" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1676">
+        <v>2018</v>
+      </c>
+      <c r="C1676">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1677" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1677">
+        <v>2014</v>
+      </c>
+      <c r="C1677">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1678" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1678">
+        <v>2017</v>
+      </c>
+      <c r="C1678">
+        <v>12450</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1679" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1679">
+        <v>2014</v>
+      </c>
+      <c r="C1679">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1680" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1680">
+        <v>2018</v>
+      </c>
+      <c r="C1680">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1681" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1681">
+        <v>2018</v>
+      </c>
+      <c r="C1681">
+        <v>11990</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1682" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1682">
+        <v>2017</v>
+      </c>
+      <c r="C1682">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1683" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1683">
+        <v>2017</v>
+      </c>
+      <c r="C1683">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1684" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1684">
+        <v>2018</v>
+      </c>
+      <c r="C1684">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1685" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1685">
+        <v>2018</v>
+      </c>
+      <c r="C1685">
+        <v>12985</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1686" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1686">
+        <v>2017</v>
+      </c>
+      <c r="C1686">
+        <v>14995</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1687" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1687">
+        <v>2018</v>
+      </c>
+      <c r="C1687">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1688" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1688">
+        <v>2018</v>
+      </c>
+      <c r="C1688">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1689" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1689">
+        <v>2018</v>
+      </c>
+      <c r="C1689">
+        <v>12490</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1690" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1690">
+        <v>2017</v>
+      </c>
+      <c r="C1690">
+        <v>11450</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1691" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1691">
+        <v>2018</v>
+      </c>
+      <c r="C1691">
+        <v>11999</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1692" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1692">
+        <v>2014</v>
+      </c>
+      <c r="C1692">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1693" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1693">
+        <v>2017</v>
+      </c>
+      <c r="C1693">
+        <v>13290</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1694" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1694">
+        <v>2017</v>
+      </c>
+      <c r="C1694">
+        <v>13290</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
